--- a/pm-ba-dominik/functions/Wortliste.xlsx
+++ b/pm-ba-dominik/functions/Wortliste.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D8565-9351-42B0-B674-A7E795BA0E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99CE06F-4DB2-4199-BE22-1AB8CB4EADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62199D8E-2757-4759-A60D-DEAE363D7CE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="172">
   <si>
     <t>AUSSCHUSS</t>
   </si>
@@ -102,9 +103,6 @@
     <t>LAMPE</t>
   </si>
   <si>
-    <t>MÄRCHEN</t>
-  </si>
-  <si>
     <t>MORAL</t>
   </si>
   <si>
@@ -180,9 +178,6 @@
     <t>AUFSATZ</t>
   </si>
   <si>
-    <t>KONGRESS</t>
-  </si>
-  <si>
     <t>EINBLICK</t>
   </si>
   <si>
@@ -222,9 +217,6 @@
     <t>DUSCHE</t>
   </si>
   <si>
-    <t>MYTHOS</t>
-  </si>
-  <si>
     <t>RIESE</t>
   </si>
   <si>
@@ -258,9 +250,6 @@
     <t>INSTANZ</t>
   </si>
   <si>
-    <t>MÜTZE</t>
-  </si>
-  <si>
     <t>SEGMENT</t>
   </si>
   <si>
@@ -282,9 +271,6 @@
     <t>INSEKT</t>
   </si>
   <si>
-    <t>MITLEID</t>
-  </si>
-  <si>
     <t>TICKET</t>
   </si>
   <si>
@@ -354,9 +340,6 @@
     <t>LESUNG</t>
   </si>
   <si>
-    <t>KUMPEL</t>
-  </si>
-  <si>
     <t>MODUL</t>
   </si>
   <si>
@@ -375,9 +358,6 @@
     <t>AUSSCHNITT</t>
   </si>
   <si>
-    <t>KOPIE</t>
-  </si>
-  <si>
     <t>BUTTER</t>
   </si>
   <si>
@@ -396,9 +376,6 @@
     <t>FASSUNG</t>
   </si>
   <si>
-    <t>KREUZUNG</t>
-  </si>
-  <si>
     <t>ANRUF</t>
   </si>
   <si>
@@ -450,6 +427,15 @@
     <t>PROBAND</t>
   </si>
   <si>
+    <t>word list 1</t>
+  </si>
+  <si>
+    <t>word list 2</t>
+  </si>
+  <si>
+    <t>word list 3</t>
+  </si>
+  <si>
     <t>nonfocal K</t>
   </si>
   <si>
@@ -460,6 +446,102 @@
   </si>
   <si>
     <t>focal 2</t>
+  </si>
+  <si>
+    <t>BERATER</t>
+  </si>
+  <si>
+    <t>FRIST</t>
+  </si>
+  <si>
+    <t>HOBBY</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>ALBUM</t>
+  </si>
+  <si>
+    <t>HANG</t>
+  </si>
+  <si>
+    <t>JUSTIZ</t>
+  </si>
+  <si>
+    <t>APPLAUS</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>TEPPICH</t>
+  </si>
+  <si>
+    <t>PRINZ</t>
+  </si>
+  <si>
+    <t>RADIUS</t>
+  </si>
+  <si>
+    <t>SCHAF</t>
+  </si>
+  <si>
+    <t>STRICH</t>
+  </si>
+  <si>
+    <t>WIRT</t>
+  </si>
+  <si>
+    <t>SCHEMA</t>
+  </si>
+  <si>
+    <t>GEDULD</t>
+  </si>
+  <si>
+    <t>HAFTUNG</t>
+  </si>
+  <si>
+    <t>HEMMUNG</t>
+  </si>
+  <si>
+    <t>CHAOS</t>
+  </si>
+  <si>
+    <t>SCHLUCK</t>
+  </si>
+  <si>
+    <t>ERSATZ</t>
+  </si>
+  <si>
+    <t>RAUCH</t>
+  </si>
+  <si>
+    <t>FEDER</t>
+  </si>
+  <si>
+    <t>HEIM</t>
+  </si>
+  <si>
+    <t>BEFUND</t>
+  </si>
+  <si>
+    <t>ZUNAHME</t>
+  </si>
+  <si>
+    <t>BARON</t>
+  </si>
+  <si>
+    <t>UNSINN</t>
+  </si>
+  <si>
+    <t>NACKEN</t>
+  </si>
+  <si>
+    <t>EMPFANG</t>
+  </si>
+  <si>
+    <t>TAFEL</t>
   </si>
   <si>
     <t>word_list_1</t>
@@ -510,14 +592,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -528,6 +615,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -846,36 +937,552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F1EAA-6C5A-4797-8AC8-95F63F8F8E89}">
-  <dimension ref="A1:G99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891B5CC6-C290-4C14-B31E-E8B42C5F8089}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>142</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:G41">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LEN(A2)&gt;7</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>LEN(A2)&gt;7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F1EAA-6C5A-4797-8AC8-95F63F8F8E89}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -892,13 +1499,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -909,13 +1516,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -926,13 +1533,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -943,13 +1550,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -960,13 +1567,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -977,13 +1578,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -994,13 +1589,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1011,13 +1600,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1028,7 +1611,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1039,488 +1622,338 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>100</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="E47" s="1"/>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="1"/>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="1"/>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="1"/>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="5:5">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:5">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" s="1"/>
-    </row>
-    <row r="95" spans="5:5">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pm-ba-dominik/functions/Wortliste.xlsx
+++ b/pm-ba-dominik/functions/Wortliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\projects\research\programming_tasks\pm-task-nback\pm-ba-dominik\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99CE06F-4DB2-4199-BE22-1AB8CB4EADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF99635-F371-4A35-BD56-C571507E2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62199D8E-2757-4759-A60D-DEAE363D7CE4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="173">
   <si>
     <t>AUSSCHUSS</t>
   </si>
@@ -451,9 +451,6 @@
     <t>BERATER</t>
   </si>
   <si>
-    <t>FRIST</t>
-  </si>
-  <si>
     <t>HOBBY</t>
   </si>
   <si>
@@ -463,36 +460,18 @@
     <t>ALBUM</t>
   </si>
   <si>
-    <t>HANG</t>
-  </si>
-  <si>
     <t>JUSTIZ</t>
   </si>
   <si>
     <t>APPLAUS</t>
   </si>
   <si>
-    <t>BLOCK</t>
-  </si>
-  <si>
     <t>TEPPICH</t>
   </si>
   <si>
-    <t>PRINZ</t>
-  </si>
-  <si>
     <t>RADIUS</t>
   </si>
   <si>
-    <t>SCHAF</t>
-  </si>
-  <si>
-    <t>STRICH</t>
-  </si>
-  <si>
-    <t>WIRT</t>
-  </si>
-  <si>
     <t>SCHEMA</t>
   </si>
   <si>
@@ -508,21 +487,12 @@
     <t>CHAOS</t>
   </si>
   <si>
-    <t>SCHLUCK</t>
-  </si>
-  <si>
     <t>ERSATZ</t>
   </si>
   <si>
-    <t>RAUCH</t>
-  </si>
-  <si>
     <t>FEDER</t>
   </si>
   <si>
-    <t>HEIM</t>
-  </si>
-  <si>
     <t>BEFUND</t>
   </si>
   <si>
@@ -542,6 +512,39 @@
   </si>
   <si>
     <t>TAFEL</t>
+  </si>
+  <si>
+    <t>AKTE</t>
+  </si>
+  <si>
+    <t>FABRIK</t>
+  </si>
+  <si>
+    <t>NEURON</t>
+  </si>
+  <si>
+    <t>GELENK</t>
+  </si>
+  <si>
+    <t>BECKEN</t>
+  </si>
+  <si>
+    <t>OPER</t>
+  </si>
+  <si>
+    <t>UNRECHT</t>
+  </si>
+  <si>
+    <t>SCHALE</t>
+  </si>
+  <si>
+    <t>ABWEHR</t>
+  </si>
+  <si>
+    <t>DAUMEN</t>
+  </si>
+  <si>
+    <t>RATHAUS</t>
   </si>
   <si>
     <t>word_list_1</t>
@@ -592,7 +595,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -947,14 +952,14 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
         <v>135</v>
@@ -983,7 +988,7 @@
         <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1000,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>73</v>
@@ -1014,10 +1019,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>98</v>
@@ -1028,7 +1033,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1048,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1059,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1070,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1078,7 +1083,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1103,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -1117,7 +1122,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1155,7 +1160,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
         <v>129</v>
@@ -1188,7 +1193,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -1199,10 +1204,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -1227,12 +1232,12 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -1260,7 +1265,7 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1271,7 +1276,7 @@
         <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1279,10 +1284,10 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1293,7 +1298,7 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1331,7 +1336,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
         <v>108</v>
@@ -1342,7 +1347,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
         <v>109</v>
@@ -1370,12 +1375,12 @@
         <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -1386,7 +1391,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
         <v>113</v>
@@ -1411,15 +1416,15 @@
         <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>116</v>
@@ -1433,7 +1438,7 @@
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>127</v>
